--- a/medicine/Mort/Peine_de_mort_en_Idaho/Peine_de_mort_en_Idaho.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Idaho/Peine_de_mort_en_Idaho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Idaho utilisa la pendaison comme mode d'exécution jusqu'en 1957. Entre le rétablissement de la peine capitale après 1976 et l'adoption de l'injection létale comme seule méthode d'exécution en vigueur actuellement, le peloton d'exécution pouvait également être utilisé.
-L'Idaho n'a exécuté que trois condamnés depuis le rétablissement de la peine de mort : le premier était un volontaire du nom de Keith Wells, en 1994[1] qui avait tué deux personnes avec une batte de baseball. 
-En 2011 a eu lieu la première exécution en 17 ans dans cet État[2].
+L'Idaho n'a exécuté que trois condamnés depuis le rétablissement de la peine de mort : le premier était un volontaire du nom de Keith Wells, en 1994 qui avait tué deux personnes avec une batte de baseball. 
+En 2011 a eu lieu la première exécution en 17 ans dans cet État.
 La loi de l'Idaho donne à un comité indépendant du gouverneur le droit de faire grâce. 
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Exécutions depuis 1973</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Kuna à l'Idaho Maximum Security Institution.
 </t>
@@ -545,9 +559,11 @@
           <t>Condamnés à mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2019 le couloir de la mort de l'Idaho compte huit condamnés dont une femme[3]. Depuis 1973, deux condamnés ont été graciés dans l'Idaho[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2019 le couloir de la mort de l'Idaho compte huit condamnés dont une femme. Depuis 1973, deux condamnés ont été graciés dans l'Idaho.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>IS 18-4003 - Meurtre au premier degré
 IS 18-5411 - Faux témoignage ou subornation de témoins entrainant l’exécution d'un innocent
